--- a/Develop/Users/HoangLVQ/HoangLVQ_UnitTest.xlsx
+++ b/Develop/Users/HoangLVQ/HoangLVQ_UnitTest.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\Capstone project\Develop\Users\HoangLVQ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="900" windowWidth="23280" windowHeight="15060" tabRatio="713" activeTab="4"/>
+    <workbookView xWindow="5580" yWindow="720" windowWidth="23280" windowHeight="15060" tabRatio="713" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -52,7 +47,7 @@
     <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.Cols" localSheetId="7" hidden="1">Template!$E:$E</definedName>
     <definedName name="Z_BE54E0AD_3725_4423_92D7_4F1C045BE1BC_.wvu.PrintArea" localSheetId="3" hidden="1">TestReport!$A:$I</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -67,7 +62,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +137,7 @@
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -180,7 +175,7 @@
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -218,7 +213,7 @@
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -256,7 +251,7 @@
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1104,12 +1099,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3332,6 +3327,12 @@
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="34" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3411,6 +3412,111 @@
     <xf numFmtId="14" fontId="41" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3420,102 +3526,6 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3545,21 +3555,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="34" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -3642,7 +3637,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3662,10 +3657,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20153061224489799"/>
-          <c:y val="0.26562550664044698"/>
+          <c:x val="0.201530612244898"/>
+          <c:y val="0.265625506640447"/>
           <c:w val="0.39795918367347"/>
-          <c:h val="0.60937616229279001"/>
+          <c:h val="0.60937616229279"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -3698,7 +3693,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-7866-4F24-8AC0-3C391CEA27FE}"/>
               </c:ext>
@@ -3718,7 +3713,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-7866-4F24-8AC0-3C391CEA27FE}"/>
               </c:ext>
@@ -3756,7 +3751,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
               </c:ext>
@@ -3786,18 +3781,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7866-4F24-8AC0-3C391CEA27FE}"/>
             </c:ext>
@@ -3831,7 +3826,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-7866-4F24-8AC0-3C391CEA27FE}"/>
               </c:ext>
@@ -3851,7 +3846,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-7866-4F24-8AC0-3C391CEA27FE}"/>
               </c:ext>
@@ -3888,7 +3883,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3918,7 +3913,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-7866-4F24-8AC0-3C391CEA27FE}"/>
             </c:ext>
@@ -3952,7 +3947,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-7866-4F24-8AC0-3C391CEA27FE}"/>
               </c:ext>
@@ -3989,7 +3984,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -4017,12 +4012,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-7866-4F24-8AC0-3C391CEA27FE}"/>
             </c:ext>
@@ -4056,7 +4051,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-7866-4F24-8AC0-3C391CEA27FE}"/>
               </c:ext>
@@ -4093,7 +4088,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -4121,12 +4116,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-7866-4F24-8AC0-3C391CEA27FE}"/>
             </c:ext>
@@ -4160,7 +4155,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-7866-4F24-8AC0-3C391CEA27FE}"/>
               </c:ext>
@@ -4180,7 +4175,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000013-7866-4F24-8AC0-3C391CEA27FE}"/>
               </c:ext>
@@ -4200,7 +4195,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-7866-4F24-8AC0-3C391CEA27FE}"/>
               </c:ext>
@@ -4237,7 +4232,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -4265,18 +4260,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000016-7866-4F24-8AC0-3C391CEA27FE}"/>
             </c:ext>
@@ -4306,10 +4301,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81377551020408301"/>
+          <c:x val="0.813775510204083"/>
           <c:y val="0.394532070209974"/>
-          <c:w val="8.4183673469387502E-2"/>
-          <c:h val="0.31640666010498703"/>
+          <c:w val="0.0841836734693875"/>
+          <c:h val="0.316406660104987"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4376,14 +4371,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.750000000000001" r="0.750000000000001" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.750000000000001" r="0.750000000000001" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4424,8 +4419,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39174440882818401"/>
-          <c:y val="5.0024180048360102E-2"/>
+          <c:x val="0.391744408828184"/>
+          <c:y val="0.0500241800483601"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4445,8 +4440,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.230941704035874"/>
           <c:y val="0.280632952679087"/>
-          <c:w val="0.33856502242152497"/>
-          <c:h val="0.59683909654284695"/>
+          <c:w val="0.338565022421525"/>
+          <c:h val="0.596839096542847"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -4479,7 +4474,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0E79-403E-AAC1-1FAA2F1C917C}"/>
               </c:ext>
@@ -4499,7 +4494,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0E79-403E-AAC1-1FAA2F1C917C}"/>
               </c:ext>
@@ -4510,8 +4505,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.8780648149531603E-3"/>
-                  <c:y val="2.6901027135387601E-2"/>
+                  <c:x val="0.00887806481495316"/>
+                  <c:y val="0.0269010271353876"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -4520,7 +4515,7 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
@@ -4560,7 +4555,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
               </c:ext>
@@ -4590,18 +4585,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0E79-403E-AAC1-1FAA2F1C917C}"/>
             </c:ext>
@@ -4635,7 +4630,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-0E79-403E-AAC1-1FAA2F1C917C}"/>
               </c:ext>
@@ -4655,7 +4650,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-0E79-403E-AAC1-1FAA2F1C917C}"/>
               </c:ext>
@@ -4693,7 +4688,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -4723,7 +4718,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-0E79-403E-AAC1-1FAA2F1C917C}"/>
             </c:ext>
@@ -4757,7 +4752,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-0E79-403E-AAC1-1FAA2F1C917C}"/>
               </c:ext>
@@ -4795,7 +4790,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -4823,12 +4818,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-0E79-403E-AAC1-1FAA2F1C917C}"/>
             </c:ext>
@@ -4862,7 +4857,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-0E79-403E-AAC1-1FAA2F1C917C}"/>
               </c:ext>
@@ -4900,7 +4895,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -4928,12 +4923,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-0E79-403E-AAC1-1FAA2F1C917C}"/>
             </c:ext>
@@ -4967,7 +4962,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-0E79-403E-AAC1-1FAA2F1C917C}"/>
               </c:ext>
@@ -4987,7 +4982,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000013-0E79-403E-AAC1-1FAA2F1C917C}"/>
               </c:ext>
@@ -5007,7 +5002,7 @@
                 <a:prstDash val="solid"/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-0E79-403E-AAC1-1FAA2F1C917C}"/>
               </c:ext>
@@ -5045,7 +5040,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -5073,18 +5068,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000016-0E79-403E-AAC1-1FAA2F1C917C}"/>
             </c:ext>
@@ -5114,10 +5109,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70703144664207895"/>
-          <c:y val="0.38624258581850501"/>
-          <c:w val="0.19058295964125499"/>
-          <c:h val="0.30039567188488903"/>
+          <c:x val="0.707031446642079"/>
+          <c:y val="0.386242585818505"/>
+          <c:w val="0.190582959641255"/>
+          <c:h val="0.300395671884889"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5184,7 +5179,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.750000000000001" r="0.750000000000001" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.750000000000001" r="0.750000000000001" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5311,7 +5306,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Function3"/>
@@ -5616,18 +5611,18 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="119.375" style="62" customWidth="1"/>
-    <col min="2" max="16384" width="8.875" style="62"/>
+    <col min="1" max="1" width="119.33203125" style="62" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="58" customFormat="1" ht="22.5">
+    <row r="1" spans="1:1" s="58" customFormat="1" ht="23">
       <c r="A1" s="57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="58" customFormat="1" ht="22.5">
+    <row r="2" spans="1:1" s="58" customFormat="1" ht="23">
       <c r="A2" s="57"/>
     </row>
     <row r="3" spans="1:1" s="60" customFormat="1" ht="18">
@@ -5645,7 +5640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="38.25">
+    <row r="6" spans="1:1" ht="39">
       <c r="A6" s="63" t="s">
         <v>75</v>
       </c>
@@ -5678,7 +5673,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="25.5">
+    <row r="13" spans="1:1" ht="26">
       <c r="A13" s="61" t="s">
         <v>63</v>
       </c>
@@ -5718,7 +5713,7 @@
       </c>
       <c r="B20" s="67"/>
     </row>
-    <row r="21" spans="1:4" ht="25.5">
+    <row r="21" spans="1:4" ht="26">
       <c r="A21" s="63" t="s">
         <v>49</v>
       </c>
@@ -5825,7 +5820,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="38.25">
+    <row r="39" spans="1:2" ht="39">
       <c r="A39" s="64" t="s">
         <v>61</v>
       </c>
@@ -5881,7 +5876,6 @@
   </sheetData>
   <phoneticPr fontId="40"/>
   <pageMargins left="0.75" right="0.75" top="0.7" bottom="0.65" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5899,26 +5893,26 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="158" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="158" customWidth="1"/>
     <col min="2" max="2" width="10" style="148" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="148" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="148" customWidth="1"/>
     <col min="4" max="4" width="8" style="148" customWidth="1"/>
     <col min="5" max="5" width="38" style="148" customWidth="1"/>
-    <col min="6" max="6" width="48.125" style="148" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="148"/>
+    <col min="6" max="6" width="48.1640625" style="148" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="148"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" s="145" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="144"/>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="146"/>
@@ -5929,11 +5923,11 @@
       <c r="A4" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="205" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
       <c r="E4" s="165" t="s">
         <v>89</v>
       </c>
@@ -5945,11 +5939,11 @@
       <c r="A5" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
       <c r="E5" s="165" t="s">
         <v>92</v>
       </c>
@@ -5958,14 +5952,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="206" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="207" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
       <c r="E6" s="165" t="s">
         <v>94</v>
       </c>
@@ -5974,10 +5968,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="204"/>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="165" t="s">
         <v>95</v>
       </c>
@@ -6106,7 +6100,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.47013888888888899" right="0.47013888888888899" top="0.5" bottom="0.35138888888888897" header="0.51180555555555596" footer="0.17013888888888901"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -6124,24 +6117,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="19" style="34" customWidth="1"/>
-    <col min="4" max="4" width="39.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="3" customWidth="1"/>
     <col min="5" max="5" width="21" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="8" max="8" width="33.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="25.5">
+    <row r="2" spans="1:8" ht="25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6159,42 +6152,42 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208" t="str">
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="210" t="str">
         <f>Cover!B4</f>
         <v>Kary Well</v>
       </c>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="210"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="212"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="209" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="208" t="str">
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="210" t="str">
         <f>Cover!B5</f>
         <v>KW</v>
       </c>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="210"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="212"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="216" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="216"/>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="218"/>
       <c r="E6" s="194">
         <v>100</v>
       </c>
@@ -6203,16 +6196,16 @@
       <c r="H6" s="196"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="208" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="213"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="215"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -6260,7 +6253,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.5">
+    <row r="11" spans="1:8" ht="17">
       <c r="A11" s="53">
         <v>1</v>
       </c>
@@ -6269,7 +6262,7 @@
       <c r="D11" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="203" t="s">
         <v>186</v>
       </c>
       <c r="F11" s="26"/>
@@ -6292,7 +6285,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5">
+    <row r="13" spans="1:8" ht="17">
       <c r="A13" s="53">
         <v>3</v>
       </c>
@@ -6301,7 +6294,7 @@
       <c r="D13" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="277" t="s">
+      <c r="E13" s="202" t="s">
         <v>188</v>
       </c>
       <c r="F13" s="26"/>
@@ -6506,7 +6499,6 @@
     <hyperlink ref="E11" location="Function1!A1" display="SK_01"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -6526,30 +6518,30 @@
       <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="5.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="5.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="10" max="10" width="33.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="222" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="A3" s="35"/>
@@ -6566,72 +6558,72 @@
       <c r="A4" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="221" t="str">
+      <c r="B4" s="223" t="str">
         <f>Cover!B4</f>
         <v>Kary Well</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222" t="s">
+      <c r="C4" s="223"/>
+      <c r="D4" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="222"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="225"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="227"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" customHeight="1">
       <c r="A5" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="221" t="str">
+      <c r="B5" s="223" t="str">
         <f>Cover!B5</f>
         <v>KW</v>
       </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="222" t="s">
+      <c r="C5" s="223"/>
+      <c r="D5" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="222"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="225"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="227"/>
     </row>
     <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="221" t="str">
+      <c r="B6" s="223" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>KW_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="221"/>
-      <c r="D6" s="222" t="s">
+      <c r="C6" s="223"/>
+      <c r="D6" s="224" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="222"/>
-      <c r="F6" s="226" t="s">
+      <c r="E6" s="224"/>
+      <c r="F6" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="228"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="230"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1">
       <c r="A8" s="38"/>
@@ -6783,18 +6775,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    <row r="14" spans="1:14" ht="18" thickBot="1">
       <c r="A14" s="44">
         <v>3</v>
       </c>
       <c r="B14" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="217">
+      <c r="C14" s="219">
         <f>COUNTIF(H47:HS47,"P")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="218"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="45" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -6816,7 +6808,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.25">
+    <row r="15" spans="1:14" ht="14">
       <c r="A15" s="44"/>
       <c r="B15" s="55"/>
       <c r="C15" s="45"/>
@@ -6827,7 +6819,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25">
+    <row r="16" spans="1:14" ht="14">
       <c r="A16" s="44"/>
       <c r="B16" s="55"/>
       <c r="C16" s="45"/>
@@ -6883,7 +6875,7 @@
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="40"/>
       <c r="B19" s="177" t="s">
         <v>120</v>
@@ -6901,7 +6893,7 @@
       <c r="H19" s="40"/>
       <c r="I19" s="52"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="40"/>
       <c r="B20" s="177" t="s">
         <v>121</v>
@@ -6919,7 +6911,7 @@
       <c r="H20" s="40"/>
       <c r="I20" s="52"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="15">
       <c r="B21" s="177" t="s">
         <v>122</v>
       </c>
@@ -6932,7 +6924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="15">
       <c r="B22" s="177" t="s">
         <v>124</v>
       </c>
@@ -6944,7 +6936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="15">
       <c r="B23" s="177" t="s">
         <v>123</v>
       </c>
@@ -6978,7 +6970,6 @@
     <hyperlink ref="B14" location="Function3!A1" display="Function3"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -6995,24 +6986,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="81" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="73" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="74" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="73" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="73" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="73" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="73"/>
+    <col min="1" max="1" width="8.1640625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="73" customWidth="1"/>
+    <col min="9" max="10" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.83203125" style="73" customWidth="1"/>
+    <col min="20" max="20" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.83203125" style="73" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
@@ -7020,59 +7011,59 @@
       <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="256" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="256" t="str">
+      <c r="B2" s="257"/>
+      <c r="C2" s="258" t="str">
         <f>TestCaseList!E11</f>
         <v>SK_01</v>
       </c>
-      <c r="D2" s="257"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="259" t="s">
+      <c r="D2" s="259"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="274" t="str">
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="231" t="str">
         <f>TestCaseList!$D$11</f>
         <v>receiverSocket(receiver)</v>
       </c>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="275"/>
-      <c r="S2" s="275"/>
-      <c r="T2" s="276"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="233"/>
       <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="247" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="241" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="243" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="232"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="234" t="s">
+      <c r="D3" s="234"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="236" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
       <c r="O3" s="197"/>
       <c r="P3" s="197"/>
       <c r="Q3" s="197"/>
@@ -7081,117 +7072,117 @@
       <c r="T3" s="198"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="247" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="263">
+      <c r="B4" s="248"/>
+      <c r="C4" s="265">
         <v>15</v>
       </c>
-      <c r="D4" s="236"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="199"/>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="235">
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-7.5</v>
       </c>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="236"/>
-      <c r="R4" s="236"/>
-      <c r="S4" s="236"/>
-      <c r="T4" s="237"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
       <c r="V4" s="75"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="247" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="246"/>
-      <c r="C5" s="247" t="s">
+      <c r="B5" s="248"/>
+      <c r="C5" s="249" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="247"/>
-      <c r="P5" s="247"/>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="249"/>
+      <c r="T5" s="249"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="233" t="s">
+      <c r="B6" s="246"/>
+      <c r="C6" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233" t="s">
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="249" t="s">
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="249"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="253" t="s">
+      <c r="M6" s="251"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="253"/>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="253"/>
-      <c r="S6" s="253"/>
-      <c r="T6" s="253"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="255"/>
       <c r="V6" s="75"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="217">
+      <c r="A7" s="219">
         <f>COUNTIF(F32:HQ32,"P")</f>
         <v>4</v>
       </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="261">
+      <c r="B7" s="220"/>
+      <c r="C7" s="263">
         <f>COUNTIF(F32:HQ32,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="251"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="261">
+      <c r="D7" s="253"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="263">
         <f>SUM(O7,- A7,- C7)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="251"/>
-      <c r="K7" s="262"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="264"/>
       <c r="L7" s="79">
         <f>COUNTIF(E31:HQ31,"N")</f>
         <v>2</v>
@@ -7204,18 +7195,18 @@
         <f>COUNTIF(E31:HQ31,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="250">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>9</v>
       </c>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="251"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="252"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="254"/>
       <c r="U7" s="80"/>
     </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:23" ht="12" thickBot="1"/>
     <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
@@ -7536,10 +7527,10 @@
       <c r="C20" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="243" t="s">
+      <c r="D20" s="245" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="243"/>
+      <c r="E20" s="245"/>
       <c r="F20" s="125"/>
       <c r="G20" s="125"/>
       <c r="H20" s="125"/>
@@ -7796,11 +7787,11 @@
       <c r="A31" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="240" t="s">
+      <c r="B31" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="240"/>
-      <c r="D31" s="240"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="242"/>
       <c r="E31" s="108"/>
       <c r="F31" s="133" t="s">
         <v>24</v>
@@ -7828,11 +7819,11 @@
     </row>
     <row r="32" spans="1:21" ht="13.5" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="260" t="s">
+      <c r="B32" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="260"/>
-      <c r="D32" s="260"/>
+      <c r="C32" s="262"/>
+      <c r="D32" s="262"/>
       <c r="E32" s="109"/>
       <c r="F32" s="135" t="s">
         <v>26</v>
@@ -7860,11 +7851,11 @@
     </row>
     <row r="33" spans="1:20" ht="13.5" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="238" t="s">
+      <c r="B33" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="238"/>
-      <c r="D33" s="238"/>
+      <c r="C33" s="240"/>
+      <c r="D33" s="240"/>
       <c r="E33" s="103"/>
       <c r="F33" s="110">
         <v>42254</v>
@@ -7890,13 +7881,13 @@
       <c r="S33" s="110"/>
       <c r="T33" s="111"/>
     </row>
-    <row r="34" spans="1:20" ht="11.25" thickBot="1">
+    <row r="34" spans="1:20" ht="12" thickBot="1">
       <c r="A34" s="119"/>
-      <c r="B34" s="239" t="s">
+      <c r="B34" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="239"/>
-      <c r="D34" s="239"/>
+      <c r="C34" s="241"/>
+      <c r="D34" s="241"/>
       <c r="E34" s="112"/>
       <c r="F34" s="113"/>
       <c r="G34" s="113"/>
@@ -7914,7 +7905,7 @@
       <c r="S34" s="113"/>
       <c r="T34" s="114"/>
     </row>
-    <row r="35" spans="1:20" ht="11.25" thickTop="1">
+    <row r="35" spans="1:20" ht="12" thickTop="1">
       <c r="A35" s="137"/>
     </row>
   </sheetData>
@@ -7961,7 +7952,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -7980,20 +7970,20 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="81" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="73" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="74" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="73" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="73" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="73" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="73"/>
+    <col min="1" max="1" width="8.1640625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="73" customWidth="1"/>
+    <col min="9" max="10" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.83203125" style="73" customWidth="1"/>
+    <col min="20" max="20" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.83203125" style="73" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
@@ -8001,59 +7991,59 @@
       <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="256" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="256" t="str">
+      <c r="B2" s="257"/>
+      <c r="C2" s="258" t="str">
         <f>TestCaseList!E11</f>
         <v>SK_01</v>
       </c>
-      <c r="D2" s="257"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="259" t="s">
+      <c r="D2" s="259"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="229" t="str">
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="266" t="str">
         <f>TestCaseList!$D$12</f>
         <v>reply(receiver, msg, eventName, callback)</v>
       </c>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="230"/>
-      <c r="T2" s="231"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="267"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="268"/>
       <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="247" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="241" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="243" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="232"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="234" t="s">
+      <c r="D3" s="234"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="236" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
       <c r="O3" s="197"/>
       <c r="P3" s="197"/>
       <c r="Q3" s="197"/>
@@ -8062,117 +8052,117 @@
       <c r="T3" s="198"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="247" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="263">
+      <c r="B4" s="248"/>
+      <c r="C4" s="265">
         <v>14</v>
       </c>
-      <c r="D4" s="236"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="199"/>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="235">
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-6.6</v>
       </c>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="236"/>
-      <c r="R4" s="236"/>
-      <c r="S4" s="236"/>
-      <c r="T4" s="237"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
       <c r="V4" s="75"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="247" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="246"/>
-      <c r="C5" s="247" t="s">
+      <c r="B5" s="248"/>
+      <c r="C5" s="249" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="247"/>
-      <c r="P5" s="247"/>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="249"/>
+      <c r="S5" s="249"/>
+      <c r="T5" s="249"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="233" t="s">
+      <c r="B6" s="246"/>
+      <c r="C6" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233" t="s">
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="249" t="s">
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="249"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="253" t="s">
+      <c r="M6" s="251"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="253"/>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="253"/>
-      <c r="S6" s="253"/>
-      <c r="T6" s="253"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="255"/>
       <c r="V6" s="75"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="217">
+      <c r="A7" s="219">
         <f>COUNTIF(F44:HQ44,"P")</f>
         <v>8</v>
       </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="261">
+      <c r="B7" s="220"/>
+      <c r="C7" s="263">
         <f>COUNTIF(F44:HQ44,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="251"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="261">
+      <c r="D7" s="253"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="263">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="251"/>
-      <c r="K7" s="262"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="264"/>
       <c r="L7" s="79">
         <f>COUNTIF(E43:HQ43,"N")</f>
         <v>4</v>
@@ -8185,18 +8175,18 @@
         <f>COUNTIF(E43:HQ43,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="250">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>8</v>
       </c>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="251"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="252"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="254"/>
       <c r="U7" s="80"/>
     </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:23" ht="12" thickBot="1"/>
     <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
@@ -8477,8 +8467,8 @@
         <v>145</v>
       </c>
       <c r="C19" s="86"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="245"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
@@ -9067,11 +9057,11 @@
       <c r="A43" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="240" t="s">
+      <c r="B43" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="240"/>
-      <c r="D43" s="240"/>
+      <c r="C43" s="242"/>
+      <c r="D43" s="242"/>
       <c r="E43" s="160"/>
       <c r="F43" s="133" t="s">
         <v>24</v>
@@ -9107,11 +9097,11 @@
     </row>
     <row r="44" spans="1:20" ht="13.5" customHeight="1">
       <c r="A44" s="118"/>
-      <c r="B44" s="260" t="s">
+      <c r="B44" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="260"/>
-      <c r="D44" s="260"/>
+      <c r="C44" s="262"/>
+      <c r="D44" s="262"/>
       <c r="E44" s="109"/>
       <c r="F44" s="135" t="s">
         <v>26</v>
@@ -9147,11 +9137,11 @@
     </row>
     <row r="45" spans="1:20" ht="13.5" customHeight="1">
       <c r="A45" s="118"/>
-      <c r="B45" s="238" t="s">
+      <c r="B45" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="238"/>
-      <c r="D45" s="238"/>
+      <c r="C45" s="240"/>
+      <c r="D45" s="240"/>
       <c r="E45" s="103"/>
       <c r="F45" s="110">
         <v>42254</v>
@@ -9185,13 +9175,13 @@
       <c r="S45" s="110"/>
       <c r="T45" s="111"/>
     </row>
-    <row r="46" spans="1:20" ht="11.25" thickBot="1">
+    <row r="46" spans="1:20" ht="12" thickBot="1">
       <c r="A46" s="119"/>
-      <c r="B46" s="239" t="s">
+      <c r="B46" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="239"/>
-      <c r="D46" s="239"/>
+      <c r="C46" s="241"/>
+      <c r="D46" s="241"/>
       <c r="E46" s="112"/>
       <c r="F46" s="113"/>
       <c r="G46" s="113"/>
@@ -9209,7 +9199,7 @@
       <c r="S46" s="113"/>
       <c r="T46" s="114"/>
     </row>
-    <row r="47" spans="1:20" ht="11.25" thickTop="1">
+    <row r="47" spans="1:20" ht="12" thickTop="1">
       <c r="A47" s="137"/>
     </row>
   </sheetData>
@@ -9256,7 +9246,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -9275,20 +9264,20 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="81" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="73" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="74" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="73" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="73" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="73" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="73"/>
+    <col min="1" max="1" width="8.1640625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="73" customWidth="1"/>
+    <col min="9" max="10" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.83203125" style="73" customWidth="1"/>
+    <col min="20" max="20" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.83203125" style="73" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
@@ -9296,59 +9285,59 @@
       <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="256" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="268" t="str">
+      <c r="B2" s="257"/>
+      <c r="C2" s="273" t="str">
         <f>TestCaseList!E11</f>
         <v>SK_01</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="259" t="s">
+      <c r="D2" s="274"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="229" t="e">
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="266" t="e">
         <f>[1]TestCaseList!$D$13</f>
         <v>#REF!</v>
       </c>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="230"/>
-      <c r="T2" s="231"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="267"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="268"/>
       <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="247" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="271" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="276" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="234" t="s">
+      <c r="D3" s="277"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="236" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
       <c r="O3" s="76"/>
       <c r="P3" s="76"/>
       <c r="Q3" s="76"/>
@@ -9357,117 +9346,117 @@
       <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="247" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="264">
+      <c r="B4" s="248"/>
+      <c r="C4" s="269">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="270"/>
       <c r="E4" s="78"/>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="235">
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="236"/>
-      <c r="R4" s="236"/>
-      <c r="S4" s="236"/>
-      <c r="T4" s="237"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
       <c r="V4" s="75"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="247" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="246"/>
-      <c r="C5" s="266" t="s">
+      <c r="B5" s="248"/>
+      <c r="C5" s="271" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
-      <c r="T5" s="266"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="271"/>
+      <c r="M5" s="271"/>
+      <c r="N5" s="271"/>
+      <c r="O5" s="271"/>
+      <c r="P5" s="271"/>
+      <c r="Q5" s="271"/>
+      <c r="R5" s="271"/>
+      <c r="S5" s="271"/>
+      <c r="T5" s="271"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="233" t="s">
+      <c r="B6" s="246"/>
+      <c r="C6" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233" t="s">
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="249" t="s">
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="249"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="253" t="s">
+      <c r="M6" s="251"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="253"/>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="253"/>
-      <c r="S6" s="253"/>
-      <c r="T6" s="253"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="255"/>
       <c r="V6" s="75"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="217">
+      <c r="A7" s="219">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>13</v>
       </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="261">
+      <c r="B7" s="220"/>
+      <c r="C7" s="263">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="251"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="261">
+      <c r="D7" s="253"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="263">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="251"/>
-      <c r="K7" s="262"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="264"/>
       <c r="L7" s="79">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -9480,18 +9469,18 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="250">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="251"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="252"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="254"/>
       <c r="U7" s="80"/>
     </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:23" ht="12" thickBot="1"/>
     <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
@@ -9760,8 +9749,8 @@
       <c r="A19" s="116"/>
       <c r="B19" s="85"/>
       <c r="C19" s="86"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="245"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
@@ -10208,11 +10197,11 @@
       <c r="A39" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="240" t="s">
+      <c r="B39" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="240"/>
-      <c r="D39" s="240"/>
+      <c r="C39" s="242"/>
+      <c r="D39" s="242"/>
       <c r="E39" s="162"/>
       <c r="F39" s="133" t="s">
         <v>22</v>
@@ -10262,11 +10251,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="118"/>
-      <c r="B40" s="260" t="s">
+      <c r="B40" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="260"/>
-      <c r="D40" s="260"/>
+      <c r="C40" s="262"/>
+      <c r="D40" s="262"/>
       <c r="E40" s="109"/>
       <c r="F40" s="135" t="s">
         <v>26</v>
@@ -10316,11 +10305,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="118"/>
-      <c r="B41" s="238" t="s">
+      <c r="B41" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="238"/>
-      <c r="D41" s="238"/>
+      <c r="C41" s="240"/>
+      <c r="D41" s="240"/>
       <c r="E41" s="103"/>
       <c r="F41" s="110">
         <v>39139</v>
@@ -10368,13 +10357,13 @@
         <v>39152</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="75.75" thickBot="1">
+    <row r="42" spans="1:20" ht="78" thickBot="1">
       <c r="A42" s="119"/>
-      <c r="B42" s="239" t="s">
+      <c r="B42" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="239"/>
-      <c r="D42" s="239"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="241"/>
       <c r="E42" s="112"/>
       <c r="F42" s="113"/>
       <c r="G42" s="113"/>
@@ -10394,7 +10383,7 @@
       <c r="S42" s="113"/>
       <c r="T42" s="114"/>
     </row>
-    <row r="43" spans="1:20" ht="11.25" thickTop="1">
+    <row r="43" spans="1:20" ht="12" thickTop="1">
       <c r="A43" s="137"/>
     </row>
   </sheetData>
@@ -10441,7 +10430,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -10462,20 +10450,20 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="81" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="73" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="74" customWidth="1"/>
-    <col min="5" max="5" width="1.625" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.875" style="73" customWidth="1"/>
-    <col min="9" max="10" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="2.875" style="73" customWidth="1"/>
-    <col min="20" max="20" width="2.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="73" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="73"/>
+    <col min="1" max="1" width="8.1640625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="73" customWidth="1"/>
+    <col min="9" max="10" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="2.83203125" style="73" customWidth="1"/>
+    <col min="20" max="20" width="2.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.83203125" style="73" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
@@ -10483,59 +10471,59 @@
       <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="256" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="268" t="str">
+      <c r="B2" s="257"/>
+      <c r="C2" s="273" t="str">
         <f>TestCaseList!E11</f>
         <v>SK_01</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="259" t="s">
+      <c r="D2" s="274"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="229" t="str">
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="266" t="str">
         <f>TestCaseList!D17</f>
         <v>getDataForShipper(shipperID)</v>
       </c>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="230"/>
-      <c r="T2" s="231"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="267"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="268"/>
       <c r="V2" s="75"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="247" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="271" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="276" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="234" t="s">
+      <c r="D3" s="277"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="236" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
       <c r="O3" s="76"/>
       <c r="P3" s="76"/>
       <c r="Q3" s="76"/>
@@ -10544,117 +10532,117 @@
       <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="247" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="264">
+      <c r="B4" s="248"/>
+      <c r="C4" s="269">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="270"/>
       <c r="E4" s="78"/>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="235">
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.1</v>
       </c>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="236"/>
-      <c r="R4" s="236"/>
-      <c r="S4" s="236"/>
-      <c r="T4" s="237"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="238"/>
+      <c r="P4" s="238"/>
+      <c r="Q4" s="238"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="238"/>
+      <c r="T4" s="239"/>
       <c r="V4" s="75"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="247" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="246"/>
-      <c r="C5" s="266" t="s">
+      <c r="B5" s="248"/>
+      <c r="C5" s="271" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="266"/>
-      <c r="S5" s="266"/>
-      <c r="T5" s="266"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="272"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="271"/>
+      <c r="M5" s="271"/>
+      <c r="N5" s="271"/>
+      <c r="O5" s="271"/>
+      <c r="P5" s="271"/>
+      <c r="Q5" s="271"/>
+      <c r="R5" s="271"/>
+      <c r="S5" s="271"/>
+      <c r="T5" s="271"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="233" t="s">
+      <c r="B6" s="246"/>
+      <c r="C6" s="235" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233"/>
-      <c r="F6" s="233" t="s">
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="249" t="s">
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="235"/>
+      <c r="L6" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="249"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="253" t="s">
+      <c r="M6" s="251"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="255" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="253"/>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="253"/>
-      <c r="S6" s="253"/>
-      <c r="T6" s="253"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="255"/>
       <c r="V6" s="75"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="217">
+      <c r="A7" s="219">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>12</v>
       </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="261">
+      <c r="B7" s="220"/>
+      <c r="C7" s="263">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="251"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="261">
+      <c r="D7" s="253"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="263">
         <f>SUM(O7,- A7,- C7)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="251"/>
-      <c r="K7" s="262"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="264"/>
       <c r="L7" s="79">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -10667,18 +10655,18 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="250">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="251"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="252"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="254"/>
       <c r="U7" s="80"/>
     </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:23" ht="12" thickBot="1"/>
     <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="138"/>
       <c r="B9" s="139"/>
@@ -10947,8 +10935,8 @@
       <c r="A19" s="116"/>
       <c r="B19" s="85"/>
       <c r="C19" s="86"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="245"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
@@ -11395,11 +11383,11 @@
       <c r="A39" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="240" t="s">
+      <c r="B39" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="240"/>
-      <c r="D39" s="240"/>
+      <c r="C39" s="242"/>
+      <c r="D39" s="242"/>
       <c r="E39" s="160"/>
       <c r="F39" s="133" t="s">
         <v>22</v>
@@ -11449,11 +11437,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="118"/>
-      <c r="B40" s="260" t="s">
+      <c r="B40" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="260"/>
-      <c r="D40" s="260"/>
+      <c r="C40" s="262"/>
+      <c r="D40" s="262"/>
       <c r="E40" s="109"/>
       <c r="F40" s="135" t="s">
         <v>26</v>
@@ -11501,11 +11489,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="118"/>
-      <c r="B41" s="238" t="s">
+      <c r="B41" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="238"/>
-      <c r="D41" s="238"/>
+      <c r="C41" s="240"/>
+      <c r="D41" s="240"/>
       <c r="E41" s="103"/>
       <c r="F41" s="110">
         <v>39139</v>
@@ -11553,13 +11541,13 @@
         <v>39152</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="75.75" thickBot="1">
+    <row r="42" spans="1:20" ht="78" thickBot="1">
       <c r="A42" s="119"/>
-      <c r="B42" s="239" t="s">
+      <c r="B42" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="239"/>
-      <c r="D42" s="239"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="241"/>
       <c r="E42" s="112"/>
       <c r="F42" s="113"/>
       <c r="G42" s="113"/>
@@ -11579,7 +11567,7 @@
       <c r="S42" s="113"/>
       <c r="T42" s="114"/>
     </row>
-    <row r="43" spans="1:20" ht="11.25" thickTop="1">
+    <row r="43" spans="1:20" ht="12" thickTop="1">
       <c r="A43" s="137"/>
     </row>
   </sheetData>
@@ -11626,7 +11614,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
